--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6819" uniqueCount="165">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -240,6 +240,324 @@
   </si>
   <si>
     <t xml:space="preserve">Reading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reading
+Mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reading
+Mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reading
+Mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reading
+Mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typography_00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lamp Control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Download the app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verdanab.ttf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reading Mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ariblk.ttf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajust Strength</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typography_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typography_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typography_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Save</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajust Speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajust Brightness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArialNormal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arial.ttf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHECK YOUR BATTERY LEVELS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAIRING INFORMATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIRMWARE UPDATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOWNLOAD THE LEVEL APP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEVICE INFORMATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESET ALL DEVICE SETTING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calibri.ttf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOUND AT OPENING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCREEN BRIGHTNESS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typography_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WARNING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please keep in mind that most
+people suffering from Dyslexia are
+intelligent and may be gifted.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level does not claim to cure any 
+conditions. Level is a device 
+incorporating led technology that has 
+been designed to help certain people 
+experimenting reaing difficulties due 
+to dyslexia. Level cannot guarantee 
+success in reading performances and 
+abilities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level does not claim to cure any 
+conditions. Level is a device 
+incorporating led technology that has 
+been designed to help certain people 
+experimenting reaing difficulties due 
+to dyslexia. Level cannot guarantee 
+success in reading performances and 
+abilities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level does not claim to cure any 
+conditions. Level is a device 
+incorporating led technology that has 
+been designed to help certain people 
+experimenting reaing difficulties due 
+to dyslexia. Level cannot guarantee 
+success in reading performances and 
+abilities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level does not claim to cure any 
+conditions. Level is a device 
+incorporating led technology that has 
+been designed to help certain people 
+experimenting reaing difficulties due 
+to dyslexia. Level cannot guarantee 
+success in reading performances and 
+abilities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level does not claim to cure any 
+conditions. Level is a device 
+incorporating led technology that has 
+been designed to help certain people 
+experimenting reaing difficulties due 
+to dyslexia. Level cannot guarantee 
+success in reading performances and 
+abilities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level does not claim to cure any 
+conditions. Level is a device 
+incorporating led technology that has 
+been designed to help certain people 
+experimenting reaing difficulties due 
+to dyslexia. Level cannot guarantee 
+success in reading performances and 
+abilities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learn how to setup Level Lamp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typography_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEVEL LAMP QUICK START</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lamp control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V0.03.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typography_06</t>
   </si>
 </sst>
 </file>
@@ -1580,10 +1898,10 @@
         <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -1614,6 +1932,25 @@
       </c>
     </row>
     <row r="8" spans="2:16">
+      <c r="B8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8">
+        <v>18</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
       <c r="L8" s="7" t="s">
         <v>8</v>
       </c>
@@ -1629,6 +1966,25 @@
       <c r="P8" s="10"/>
     </row>
     <row r="9" spans="2:16">
+      <c r="B9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9">
+        <v>14</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
       <c r="L9" s="11" t="s">
         <v>6</v>
       </c>
@@ -1646,6 +2002,25 @@
       </c>
     </row>
     <row r="10" spans="2:16">
+      <c r="B10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
       <c r="L10" s="11" t="s">
         <v>28</v>
       </c>
@@ -1661,12 +2036,113 @@
       <c r="P10" s="14"/>
     </row>
     <row r="11" spans="2:16">
+      <c r="B11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
       <c r="L11" s="15"/>
     </row>
     <row r="12" spans="2:16">
+      <c r="B12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
       <c r="M12" s="16" t="s">
         <v>27</v>
       </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+    </row>
+    <row r="14">
+      <c r="B14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14">
+        <v>14</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+    </row>
+    <row r="15">
+      <c r="B15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15">
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
     </row>
   </sheetData>
   <sheetProtection sheet="0" objects="0" scenarios="0" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
@@ -1902,19 +2378,681 @@
         <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>164</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="E14" t="s">
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" t="s">
+        <v>121</v>
+      </c>
+      <c r="D38" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="s">
+        <v>126</v>
+      </c>
+      <c r="C39" t="s">
+        <v>121</v>
+      </c>
+      <c r="D39" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="s">
+        <v>128</v>
+      </c>
+      <c r="C40" t="s">
+        <v>121</v>
+      </c>
+      <c r="D40" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" t="s">
+        <v>121</v>
+      </c>
+      <c r="D41" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" t="s">
+        <v>43</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="s">
+        <v>134</v>
+      </c>
+      <c r="C43" t="s">
+        <v>121</v>
+      </c>
+      <c r="D43" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="s">
+        <v>137</v>
+      </c>
+      <c r="C44" t="s">
+        <v>121</v>
+      </c>
+      <c r="D44" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="s">
+        <v>139</v>
+      </c>
+      <c r="C45" t="s">
+        <v>121</v>
+      </c>
+      <c r="D45" t="s">
+        <v>43</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="s">
+        <v>142</v>
+      </c>
+      <c r="C46" t="s">
+        <v>80</v>
+      </c>
+      <c r="D46" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="s">
+        <v>144</v>
+      </c>
+      <c r="C47" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" t="s">
+        <v>75</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="s">
+        <v>145</v>
+      </c>
+      <c r="C48" t="s">
+        <v>38</v>
+      </c>
+      <c r="D48" t="s">
+        <v>43</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="s">
+        <v>147</v>
+      </c>
+      <c r="C49" t="s">
+        <v>141</v>
+      </c>
+      <c r="D49" t="s">
+        <v>75</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="s">
+        <v>149</v>
+      </c>
+      <c r="C50" t="s">
+        <v>141</v>
+      </c>
+      <c r="D50" t="s">
+        <v>75</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="s">
+        <v>156</v>
+      </c>
+      <c r="C51" t="s">
+        <v>141</v>
+      </c>
+      <c r="D51" t="s">
+        <v>43</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" t="s">
+        <v>157</v>
+      </c>
+      <c r="C52" t="s">
+        <v>159</v>
+      </c>
+      <c r="D52" t="s">
+        <v>43</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="s">
+        <v>162</v>
+      </c>
+      <c r="C53" t="s">
+        <v>38</v>
+      </c>
+      <c r="D53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>163</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>
